--- a/src/Data/Scalability/DenStream/Denstream-MaxSpeedup.xlsx
+++ b/src/Data/Scalability/DenStream/Denstream-MaxSpeedup.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Documents/ISCAS/StreamingML/document/clustering/streamclustering/TestResult/pic/0513MaxSpeedup/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Repositories/PythonGraph/src/Data/Scalability/DenStream/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,18 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>KDD99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CoverType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KDD98</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>p=1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -68,6 +56,18 @@
   </si>
   <si>
     <t>p=32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>large-KDD99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>large-CoverType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>large-KDD98</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -563,25 +563,29 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -596,7 +600,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>2.0739064948553629</v>
@@ -611,7 +615,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>3.4440127646072303</v>
@@ -626,7 +630,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>6.8100877858788174</v>
@@ -641,7 +645,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>7.950045359985169</v>
@@ -656,7 +660,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>8.0610487032805249</v>
